--- a/biology/Botanique/Durvillaea/Durvillaea.xlsx
+++ b/biology/Botanique/Durvillaea/Durvillaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Durvillaea, ou Durvilléa, est un genre d'algues brunes, le seul connu de la famille des Durvilleaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sarcophycus Kützing, 1843[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sarcophycus Kützing, 1843</t>
         </is>
       </c>
     </row>
@@ -541,9 +555,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 octobre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 octobre 2017) :
 Durvillaea amatheiae X.A.Weber, G.J.Edgar, S.C.Banks, J.M.Waters &amp; C.I.Fraser
 Durvillaea antarctica (Chamisso) Hariot (espèce type)
 Durvillaea chathamensis C.H.Hay
@@ -551,14 +567,14 @@
 Durvillaea potatorum (Labillardière) Areschoug
 Durvillaea simplex Suhr
 Durvillaea willana Lindauer
-Selon NCBI  (23 octobre 2017)[3] :
+Selon NCBI  (23 octobre 2017) :
 Durvillaea amatheiae
 Durvillaea antarctica
 Durvillaea chathamensis
 Durvillaea poha
 Durvillaea potatorum
 Durvillaea willana
-Selon World Register of Marine Species                               (23 octobre 2017)[2] :
+Selon World Register of Marine Species                               (23 octobre 2017) :
 Durvillaea antarctica (Chamisso) Hariot, 1892
 Durvillaea chathamensis C.H.Hay, 1979
 Durvillaea poha C.I.Fraser, H.G.Spencer &amp; J.M.Waters, 2012
